--- a/Закупленно.xlsx
+++ b/Закупленно.xlsx
@@ -8,29 +8,43 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brandon\Desktop\вентиляция\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F25452D-45E4-4E57-B621-EACD5162521E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FD9DA5-9A95-4271-A405-20A77AA81D9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Контроллер ПР200-220.2.1.0</t>
   </si>
   <si>
     <t xml:space="preserve">Маркировка онка 3 комплекта </t>
+  </si>
+  <si>
+    <t>chint автоматы и контакторы</t>
+  </si>
+  <si>
+    <t>итого:</t>
   </si>
 </sst>
 </file>
@@ -348,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -359,7 +373,7 @@
     <col min="2" max="2" width="45.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -372,8 +386,19 @@
       <c r="D1">
         <v>8050</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1">
+        <f>C1*D1</f>
+        <v>8050</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1">
+        <f>SUM(E:E)</f>
+        <v>15550</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -385,6 +410,88 @@
       </c>
       <c r="D2">
         <v>2200</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E13" si="0">C2*D2</f>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>5300</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
